--- a/RNN_python/schd_sam_output_data/anom_data6.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data6.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="D2" t="n">
-        <v>3.392055866844657</v>
+        <v>33.17913733419823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43151.04166666666</v>
+        <v>43152.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8.549118432096861</v>
+        <v>30.60173419585317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43151.08333333334</v>
+        <v>43152.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>6.856398567586666</v>
+        <v>37.61596668010067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43151.125</v>
+        <v>43152.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.765768422996928</v>
+        <v>41.90803496612124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43151.16666666666</v>
+        <v>43152.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.91688562437281</v>
+        <v>39.67082450153826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43151.20833333334</v>
+        <v>43152.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2.647509155710992</v>
+        <v>28.91492809245082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43151.25</v>
+        <v>43152.25</v>
       </c>
       <c r="D8" t="n">
-        <v>72.26809034995337</v>
+        <v>29.88569075896234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43151.29166666666</v>
+        <v>43152.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>446.4700649219706</v>
+        <v>91.55606815363129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43151.33333333334</v>
+        <v>43152.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>448.0588970868594</v>
+        <v>549.3479401001823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43151.375</v>
+        <v>43152.375</v>
       </c>
       <c r="D11" t="n">
-        <v>476.7551399810216</v>
+        <v>450.2795240402272</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43151.41666666666</v>
+        <v>43152.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>330.8119562629541</v>
+        <v>448.1085822198295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43151.45833333334</v>
+        <v>43152.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>317.8872819119214</v>
+        <v>308.9420125633002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43151.5</v>
+        <v>43152.5</v>
       </c>
       <c r="D14" t="n">
-        <v>266.96788783239</v>
+        <v>286.9291380696014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43151.54166666666</v>
+        <v>43152.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>223.2933460552138</v>
+        <v>252.124918649496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43151.58333333334</v>
+        <v>43152.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>172.5329475597567</v>
+        <v>223.6783896922935</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43151.625</v>
+        <v>43152.625</v>
       </c>
       <c r="D17" t="n">
-        <v>142.0304662440404</v>
+        <v>193.333904084253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43151.66666666666</v>
+        <v>43152.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>114.440921235301</v>
+        <v>159.6264916118809</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43151.70833333334</v>
+        <v>43152.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>82.1541268250724</v>
+        <v>123.1625326790178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43151.75</v>
+        <v>43152.75</v>
       </c>
       <c r="D20" t="n">
-        <v>56.92601164505584</v>
+        <v>88.05605843114279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43151.79166666666</v>
+        <v>43152.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>43.22814822184469</v>
+        <v>59.87152254478352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43151.83333333334</v>
+        <v>43152.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>33.10501159219459</v>
+        <v>41.12293419192466</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43151.875</v>
+        <v>43152.875</v>
       </c>
       <c r="D23" t="n">
-        <v>26.73481583672257</v>
+        <v>30.78193024965206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43151.91666666666</v>
+        <v>43152.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>24.4270585898939</v>
+        <v>26.46123138092835</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43151.95833333334</v>
+        <v>43152.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>31.97786917523827</v>
+        <v>19.36980787110716</v>
       </c>
     </row>
   </sheetData>
@@ -709,11 +709,11 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>
@@ -723,177 +723,177 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43151.04166666666</v>
+        <v>43152.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43151.08333333334</v>
+        <v>43152.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43151.125</v>
+        <v>43152.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43151.16666666666</v>
+        <v>43152.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43151.20833333334</v>
+        <v>43152.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43151.25</v>
+        <v>43152.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43151.29166666666</v>
+        <v>43152.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43151.33333333334</v>
+        <v>43152.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43151.375</v>
+        <v>43152.375</v>
       </c>
       <c r="D11" t="n">
-        <v>487</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43151.41666666666</v>
+        <v>43152.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>356</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43151.45833333334</v>
+        <v>43152.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43151.5</v>
+        <v>43152.5</v>
       </c>
       <c r="D14" t="n">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43151.54166666666</v>
+        <v>43152.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43151.58333333334</v>
+        <v>43152.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43151.625</v>
+        <v>43152.625</v>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43151.66666666666</v>
+        <v>43152.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43151.70833333334</v>
+        <v>43152.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43151.75</v>
+        <v>43152.75</v>
       </c>
       <c r="D20" t="n">
         <v>57</v>
@@ -903,50 +903,50 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43151.79166666666</v>
+        <v>43152.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43151.83333333334</v>
+        <v>43152.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43151.875</v>
+        <v>43152.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43151.91666666666</v>
+        <v>43152.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43151.95833333334</v>
+        <v>43152.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data6.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data6.xlsx
@@ -424,240 +424,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43278</v>
       </c>
       <c r="D2" t="n">
-        <v>33.17913733419823</v>
+        <v>8.767738854198782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43278.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>30.60173419585317</v>
+        <v>9.725632266738515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43278.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>37.61596668010067</v>
+        <v>11.50640849819152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43278.125</v>
       </c>
       <c r="D5" t="n">
-        <v>41.90803496612124</v>
+        <v>11.16021117519827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43278.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>39.67082450153826</v>
+        <v>10.99708591296334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43278.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>28.91492809245082</v>
+        <v>17.09367871976343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43278.25</v>
       </c>
       <c r="D8" t="n">
-        <v>29.88569075896234</v>
+        <v>41.48673040491754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43278.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>91.55606815363129</v>
+        <v>261.6007182329374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43278.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>549.3479401001823</v>
+        <v>411.4596055071438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43278.375</v>
       </c>
       <c r="D11" t="n">
-        <v>450.2795240402272</v>
+        <v>394.382601034726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43278.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>448.1085822198295</v>
+        <v>324.1282570836152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43278.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>308.9420125633002</v>
+        <v>228.8190662220296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43278.5</v>
       </c>
       <c r="D14" t="n">
-        <v>286.9291380696014</v>
+        <v>190.8954218755534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43278.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>252.124918649496</v>
+        <v>147.5832401844319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43278.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>223.6783896922935</v>
+        <v>109.1256578716187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43278.625</v>
       </c>
       <c r="D17" t="n">
-        <v>193.333904084253</v>
+        <v>76.24430196024662</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43278.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>159.6264916118809</v>
+        <v>48.93283160380234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43278.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>123.1625326790178</v>
+        <v>28.7128178260301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43278.75</v>
       </c>
       <c r="D20" t="n">
-        <v>88.05605843114279</v>
+        <v>15.14655306683143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43278.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>59.87152254478352</v>
+        <v>6.452869896765023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43278.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>41.12293419192466</v>
+        <v>0.9784624442521874</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43278.875</v>
       </c>
       <c r="D23" t="n">
-        <v>30.78193024965206</v>
+        <v>-2.354759359866463</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43278.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>26.46123138092835</v>
+        <v>-4.144537443928954</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43278.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>19.36980787110716</v>
+        <v>-4.151613398749987</v>
       </c>
     </row>
   </sheetData>
@@ -713,240 +713,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43278</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43278.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43278.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43278.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43278.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43278.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43278.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43278.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43278.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43278.375</v>
       </c>
       <c r="D11" t="n">
-        <v>344</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43278.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>408</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43278.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>279</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43278.5</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43278.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43278.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43278.625</v>
       </c>
       <c r="D17" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43278.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43278.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43278.75</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43278.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43278.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43278.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43278.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43278.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data6.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data6.xlsx
@@ -424,240 +424,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43278</v>
+        <v>43271</v>
       </c>
       <c r="D2" t="n">
-        <v>8.767738854198782</v>
+        <v>-4.264612984758131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43278.04166666666</v>
+        <v>43271.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9.725632266738515</v>
+        <v>-2.917724153998066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43278.08333333334</v>
+        <v>43271.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>11.50640849819152</v>
+        <v>-1.639202563729427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43278.125</v>
+        <v>43271.125</v>
       </c>
       <c r="D5" t="n">
-        <v>11.16021117519827</v>
+        <v>-2.692952634740308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43278.16666666666</v>
+        <v>43271.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>10.99708591296334</v>
+        <v>-6.561155378119778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43278.20833333334</v>
+        <v>43271.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>17.09367871976343</v>
+        <v>-11.86532968797167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43278.25</v>
+        <v>43271.25</v>
       </c>
       <c r="D8" t="n">
-        <v>41.48673040491754</v>
+        <v>-10.90860812663222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43278.29166666666</v>
+        <v>43271.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>261.6007182329374</v>
+        <v>-4.26367414691282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43278.33333333334</v>
+        <v>43271.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>411.4596055071438</v>
+        <v>68.93513311781344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43278.375</v>
+        <v>43271.375</v>
       </c>
       <c r="D11" t="n">
-        <v>394.382601034726</v>
+        <v>380.3182428455975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43278.41666666666</v>
+        <v>43271.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>324.1282570836152</v>
+        <v>347.8679157158534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43278.45833333334</v>
+        <v>43271.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>228.8190662220296</v>
+        <v>357.5656679538861</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43278.5</v>
+        <v>43271.5</v>
       </c>
       <c r="D14" t="n">
-        <v>190.8954218755534</v>
+        <v>206.0768159340089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43278.54166666666</v>
+        <v>43271.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>147.5832401844319</v>
+        <v>225.1089901639392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43278.58333333334</v>
+        <v>43271.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>109.1256578716187</v>
+        <v>161.0678152369347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43278.625</v>
+        <v>43271.625</v>
       </c>
       <c r="D17" t="n">
-        <v>76.24430196024662</v>
+        <v>130.1549572041347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43278.66666666666</v>
+        <v>43271.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>48.93283160380234</v>
+        <v>92.00842990149751</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43278.70833333334</v>
+        <v>43271.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>28.7128178260301</v>
+        <v>63.65417214614895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43278.75</v>
+        <v>43271.75</v>
       </c>
       <c r="D20" t="n">
-        <v>15.14655306683143</v>
+        <v>42.17421103582595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43278.79166666666</v>
+        <v>43271.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>6.452869896765023</v>
+        <v>26.41694746083502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43278.83333333334</v>
+        <v>43271.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9784624442521874</v>
+        <v>15.10903870471277</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43278.875</v>
+        <v>43271.875</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.354759359866463</v>
+        <v>7.079074652664062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43278.91666666666</v>
+        <v>43271.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.144537443928954</v>
+        <v>1.386274904649724</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43278.95833333334</v>
+        <v>43271.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.151613398749987</v>
+        <v>-4.875262124094505</v>
       </c>
     </row>
   </sheetData>
@@ -713,37 +713,37 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43278</v>
+        <v>43271</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43278.04166666666</v>
+        <v>43271.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43278.08333333334</v>
+        <v>43271.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43278.125</v>
+        <v>43271.125</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -753,37 +753,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43278.16666666666</v>
+        <v>43271.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43278.20833333334</v>
+        <v>43271.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43278.25</v>
+        <v>43271.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43278.29166666666</v>
+        <v>43271.29166666666</v>
       </c>
       <c r="D9" t="n">
         <v>38</v>
@@ -793,117 +793,117 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43278.33333333334</v>
+        <v>43271.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>466</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43278.375</v>
+        <v>43271.375</v>
       </c>
       <c r="D11" t="n">
-        <v>435</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43278.41666666666</v>
+        <v>43271.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43278.45833333334</v>
+        <v>43271.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>227</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43278.5</v>
+        <v>43271.5</v>
       </c>
       <c r="D14" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43278.54166666666</v>
+        <v>43271.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43278.58333333334</v>
+        <v>43271.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43278.625</v>
+        <v>43271.625</v>
       </c>
       <c r="D17" t="n">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43278.66666666666</v>
+        <v>43271.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43278.70833333334</v>
+        <v>43271.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43278.75</v>
+        <v>43271.75</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43278.79166666666</v>
+        <v>43271.79166666666</v>
       </c>
       <c r="D21" t="n">
         <v>26</v>
@@ -913,40 +913,40 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43278.83333333334</v>
+        <v>43271.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43278.875</v>
+        <v>43271.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43278.91666666666</v>
+        <v>43271.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43278.95833333334</v>
+        <v>43271.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data6.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data6.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43271</v>
+        <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.264612984758131</v>
+        <v>4.010349663357061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43271.04166666666</v>
+        <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.917724153998066</v>
+        <v>2.6997770950139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43271.08333333334</v>
+        <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.639202563729427</v>
+        <v>8.661201103246995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43271.125</v>
+        <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.692952634740308</v>
+        <v>9.074484269650114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43271.16666666666</v>
+        <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.561155378119778</v>
+        <v>6.85649962560214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43271.20833333334</v>
+        <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.86532968797167</v>
+        <v>6.562196026715668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43271.25</v>
+        <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.90860812663222</v>
+        <v>21.72982727211016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43271.29166666666</v>
+        <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.26367414691282</v>
+        <v>49.08486524097813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43271.33333333334</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>68.93513311781344</v>
+        <v>459.6313362711628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43271.375</v>
+        <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>380.3182428455975</v>
+        <v>403.6462358145776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43271.41666666666</v>
+        <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>347.8679157158534</v>
+        <v>414.0002559124304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43271.45833333334</v>
+        <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>357.5656679538861</v>
+        <v>230.6798209455011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43271.5</v>
+        <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>206.0768159340089</v>
+        <v>265.0600326579045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43271.54166666666</v>
+        <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>225.1089901639392</v>
+        <v>187.8335610498393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43271.58333333334</v>
+        <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>161.0678152369347</v>
+        <v>158.7898042150844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43271.625</v>
+        <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>130.1549572041347</v>
+        <v>113.5479677920516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43271.66666666666</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>92.00842990149751</v>
+        <v>80.98800823933088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43271.70833333334</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>63.65417214614895</v>
+        <v>56.79945326134848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43271.75</v>
+        <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>42.17421103582595</v>
+        <v>38.81551444202718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43271.79166666666</v>
+        <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>26.41694746083502</v>
+        <v>25.58465843746394</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43271.83333333334</v>
+        <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>15.10903870471277</v>
+        <v>16.12876705872262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43271.875</v>
+        <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>7.079074652664062</v>
+        <v>9.733865404264222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43271.91666666666</v>
+        <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>1.386274904649724</v>
+        <v>5.827954582769081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43271.95833333334</v>
+        <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.875262124094505</v>
+        <v>11.08830289225475</v>
       </c>
     </row>
   </sheetData>
@@ -709,61 +709,61 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43271</v>
+        <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43271.04166666666</v>
+        <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43271.08333333334</v>
+        <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43271.125</v>
+        <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43271.16666666666</v>
+        <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43271.20833333334</v>
+        <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -773,180 +773,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43271.25</v>
+        <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43271.29166666666</v>
+        <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43271.33333333334</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>405</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43271.375</v>
+        <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>343</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43271.41666666666</v>
+        <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>382</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43271.45833333334</v>
+        <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>300</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43271.5</v>
+        <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>244</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43271.54166666666</v>
+        <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43271.58333333334</v>
+        <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43271.625</v>
+        <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43271.66666666666</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43271.70833333334</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43271.75</v>
+        <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43271.79166666666</v>
+        <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43271.83333333334</v>
+        <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43271.875</v>
+        <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43271.91666666666</v>
+        <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43271.95833333334</v>
+        <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data6.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data6.xlsx
@@ -424,240 +424,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43269</v>
+        <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>4.010349663357061</v>
+        <v>44.5020513661465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43269.04166666666</v>
+        <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6997770950139</v>
+        <v>16.05431540507239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43269.08333333334</v>
+        <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8.661201103246995</v>
+        <v>25.98150060815571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43269.125</v>
+        <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>9.074484269650114</v>
+        <v>23.49218504313325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43269.16666666666</v>
+        <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.85649962560214</v>
+        <v>30.71853243126881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43269.20833333334</v>
+        <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6.562196026715668</v>
+        <v>26.54742250437629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43269.25</v>
+        <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>21.72982727211016</v>
+        <v>12.51361331266017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43269.29166666666</v>
+        <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>49.08486524097813</v>
+        <v>45.56059996429697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>459.6313362711628</v>
+        <v>477.0280863497542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43269.375</v>
+        <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>403.6462358145776</v>
+        <v>432.1897375917213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43269.41666666666</v>
+        <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>414.0002559124304</v>
+        <v>457.4980749347607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43269.45833333334</v>
+        <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>230.6798209455011</v>
+        <v>319.3448241208163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43269.5</v>
+        <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>265.0600326579045</v>
+        <v>281.3601675595843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43269.54166666666</v>
+        <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>187.8335610498393</v>
+        <v>279.5373886993344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43269.58333333334</v>
+        <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>158.7898042150844</v>
+        <v>217.303375665591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43269.625</v>
+        <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>113.5479677920516</v>
+        <v>196.6912863844016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>80.98800823933088</v>
+        <v>169.2093925223173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>56.79945326134848</v>
+        <v>126.8833152676727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43269.75</v>
+        <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>38.81551444202718</v>
+        <v>86.23870020770278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43269.79166666666</v>
+        <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>25.58465843746394</v>
+        <v>57.859395239113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43269.83333333334</v>
+        <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>16.12876705872262</v>
+        <v>41.18640392419475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43269.875</v>
+        <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>9.733865404264222</v>
+        <v>32.46720615529955</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43269.91666666666</v>
+        <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.827954582769081</v>
+        <v>27.78044533457803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43269.95833333334</v>
+        <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>11.08830289225475</v>
+        <v>25.96984290466845</v>
       </c>
     </row>
   </sheetData>
@@ -713,240 +713,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43269</v>
+        <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43269.04166666666</v>
+        <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43269.08333333334</v>
+        <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43269.125</v>
+        <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43269.16666666666</v>
+        <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43269.20833333334</v>
+        <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43269.25</v>
+        <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43269.29166666666</v>
+        <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>163</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43269.375</v>
+        <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>199</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43269.41666666666</v>
+        <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>173</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43269.45833333334</v>
+        <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43269.5</v>
+        <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43269.54166666666</v>
+        <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43269.58333333334</v>
+        <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43269.625</v>
+        <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43269.75</v>
+        <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43269.79166666666</v>
+        <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43269.83333333334</v>
+        <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43269.875</v>
+        <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43269.91666666666</v>
+        <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43269.95833333334</v>
+        <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
